--- a/cheatsheet.xlsx
+++ b/cheatsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41460" yWindow="1060" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="41460" yWindow="1060" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -39,13 +39,582 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="173">
   <si>
     <t>color</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://shancarter.github.io/mr-data-converter/ にcsvを各階層ごとに貼り付ける</t>
+    <t>Anchors</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character Classes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>desc-en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>desc-ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character classes can be used in ranges.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSIX Character Classes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0000FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSIX Character Classes must be used in bracket expressions, e.g. [a-z[:upper:]].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Groups</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0f000f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bracket Expressions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>000f0f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quantifiers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0f0f0f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Special Characters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0f00ff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assertions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00ff0f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Back References</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case Modifiers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modifiers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Back references are used in replacements.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case modifiers are used in replacements.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modifiers can be grouped together, e.g. (?ixm).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f00000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ff0000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\A</t>
+  </si>
+  <si>
+    <t>\\z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches at the start of string or start of line if multi-line mode is enabled. Many regex implementations have multi-line mode enabled by default.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches at the end of string or end of line if multi-line mode is  enabled. Many regex implementations have multi-line mode enabled by default.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches at the start of the search string.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches at the end of the search string, or before a newline at the end of the string.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches at the end of the search string.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches at word boundaries.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches anywhere but word boundaries.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\x{ffff}</t>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Matches any character except newline (matches newline in single-line)</t>
+  </si>
+  <si>
+    <t>Matches white space characters.</t>
+  </si>
+  <si>
+    <t>\S</t>
+  </si>
+  <si>
+    <t>Matches anything but white space characters.</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>Matches digits. Equivalent to [0-9].</t>
+  </si>
+  <si>
+    <t>\D</t>
+  </si>
+  <si>
+    <t>Matches anything but digits. Equivalent to [^0-9].</t>
+  </si>
+  <si>
+    <t>\w</t>
+  </si>
+  <si>
+    <t>\W</t>
+  </si>
+  <si>
+    <t>\xff</t>
+  </si>
+  <si>
+    <t>Matches ASCII hexadecimal character ff.</t>
+  </si>
+  <si>
+    <t>Matches UTF-8 hexadecimal character ffff.</t>
+  </si>
+  <si>
+    <t>Matches ASCII control character ^A (case insensitive).</t>
+  </si>
+  <si>
+    <t>Matches ASCII octal character 132.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches letters, digits and underscores. Equivalent to [A-Za-z0-9_].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches anything but letters, digits and underscores.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[:upper:]</t>
+  </si>
+  <si>
+    <t>Matches uppercase letters. Equivalent to A-Z.</t>
+  </si>
+  <si>
+    <t>[:lower:]</t>
+  </si>
+  <si>
+    <t>Matches lowercase letters. Equivalent to a-z.</t>
+  </si>
+  <si>
+    <t>[:alpha:]</t>
+  </si>
+  <si>
+    <t>Matches letters. Equivalent to A-Za-z.</t>
+  </si>
+  <si>
+    <t>[:alnum:]</t>
+  </si>
+  <si>
+    <t>Matches letters and digits. Equivalent to A-Za-z0-9.</t>
+  </si>
+  <si>
+    <t>[:ascii:]</t>
+  </si>
+  <si>
+    <t>[:word:]</t>
+  </si>
+  <si>
+    <t>[:digit:]</t>
+  </si>
+  <si>
+    <t>Matches digits. Equivalent to 0-9.</t>
+  </si>
+  <si>
+    <t>[:xdigit:]</t>
+  </si>
+  <si>
+    <t>Matches characters that can be used in hexadecimal codes.</t>
+  </si>
+  <si>
+    <t>[:punct:]</t>
+  </si>
+  <si>
+    <t>Matches punctuation.</t>
+  </si>
+  <si>
+    <t>[:blank:]</t>
+  </si>
+  <si>
+    <t>[:space:]</t>
+  </si>
+  <si>
+    <t>[:cntrl:]</t>
+  </si>
+  <si>
+    <t>[:graph:]</t>
+  </si>
+  <si>
+    <t>[:print:]</t>
+  </si>
+  <si>
+    <t>Matches ASCII characters. Equivalent to \\x00-\\x7f.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches letters, digits and underscores. Equivalent to \\w.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches space and tab. Equivalent to [ \\t].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches space, tab and newline. Equivalent to \\s.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches control characters. Equivalent to [\\x00-\\x1F\\x7F].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches printed characters. Equivalent to [\\x21-\\x7E].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matches printed characters and spaces. Equivalent to [\\x21-\\x7E].</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(foo|bar)</t>
+  </si>
+  <si>
+    <t>Matches pattern foo or bar.</t>
+  </si>
+  <si>
+    <t>(foo)</t>
+  </si>
+  <si>
+    <t>Define a group (or subpattern) consisting of pattern foo. Matches within the group can be referenced in a replacement using a backreference.</t>
+  </si>
+  <si>
+    <t>(?&lt;foo&gt;bar)</t>
+  </si>
+  <si>
+    <t>Define a named group named "foo" consisting of pattern bar. Matches within the group can be referenced in a replacement using the backreference $foo.</t>
+  </si>
+  <si>
+    <t>(?:foo)</t>
+  </si>
+  <si>
+    <t>Define a passive group consisting of pattern foo. Passive groups cannot be referenced in a replacement using a backreference.</t>
+  </si>
+  <si>
+    <t>(?&gt;foo+)bar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Define an atomic group consisting of pattern foo+. Once foo+ has been matched, the regex engine will not try to find other variable length matches of foo+ in order to find a match followed by a maßtch of bar. Atomic groups may be used for perforamce reasons.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[adf]</t>
+  </si>
+  <si>
+    <t>Matches characters a or d or f.</t>
+  </si>
+  <si>
+    <t>[^adf]</t>
+  </si>
+  <si>
+    <t>Matches anything but characters a, d and f.</t>
+  </si>
+  <si>
+    <t>[a-f]</t>
+  </si>
+  <si>
+    <t>Match any lowercase letter between a and f inclusive.</t>
+  </si>
+  <si>
+    <t>[A-F]</t>
+  </si>
+  <si>
+    <t>Match any uppercase letter between A and F inclusive.</t>
+  </si>
+  <si>
+    <t>[0-9]</t>
+  </si>
+  <si>
+    <t>Match any digit between 0 and 9 inclusive.</t>
+  </si>
+  <si>
+    <t>*?</t>
+  </si>
+  <si>
+    <t>Zero or more, lazy. Matches will be as small as possible.</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>One or more. Matches will be as large as possible.</t>
+  </si>
+  <si>
+    <t>+?</t>
+  </si>
+  <si>
+    <t>One or more, lazy. Matches will be as small as possible.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Zero or one. Matches will be as large as possible.</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Zero or one, lazy. Matches will be as small as possible.</t>
+  </si>
+  <si>
+    <t>{2}</t>
+  </si>
+  <si>
+    <t>Two exactly.</t>
+  </si>
+  <si>
+    <t>{2,}</t>
+  </si>
+  <si>
+    <t>Two or more. Matches will be as large as possible.</t>
+  </si>
+  <si>
+    <t>{2,}?</t>
+  </si>
+  <si>
+    <t>Two or more, lazy. Matches will be as small as possible.</t>
+  </si>
+  <si>
+    <t>{2,4}</t>
+  </si>
+  <si>
+    <t>Two, three or four. Matches will be as large as possible.</t>
+  </si>
+  <si>
+    <t>{2,4}?</t>
+  </si>
+  <si>
+    <t>Two, three or four, lazy. Matches will be as small as possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\ </t>
+  </si>
+  <si>
+    <t>Escape character.</t>
+  </si>
+  <si>
+    <t>\\n</t>
+  </si>
+  <si>
+    <t>Matches newline.</t>
+  </si>
+  <si>
+    <t>\\t</t>
+  </si>
+  <si>
+    <t>Matches tab.</t>
+  </si>
+  <si>
+    <t>\\r</t>
+  </si>
+  <si>
+    <t>Matches carriage return.</t>
+  </si>
+  <si>
+    <t>\\v</t>
+  </si>
+  <si>
+    <t>Matches form feed/page break.</t>
+  </si>
+  <si>
+    <t>foo(?=bar)</t>
+  </si>
+  <si>
+    <t>Lookahead assertion. The pattern foo will only match if followed by a match of pattern bar.</t>
+  </si>
+  <si>
+    <t>foo(?!bar)</t>
+  </si>
+  <si>
+    <t>Negative lookahead assertion. The pattern foo will only match if not followed by a match of pattern bar.</t>
+  </si>
+  <si>
+    <t>(?&lt;=foo)bar</t>
+  </si>
+  <si>
+    <t>Lookbehind assertion. The pattern bar will only match if preceded by a match of pattern foo.</t>
+  </si>
+  <si>
+    <t>(?&lt;!foo)bar</t>
+  </si>
+  <si>
+    <t>Negative lookbehind assertion. The pattern bar will only match if not preceded by a match of pattern foo.</t>
+  </si>
+  <si>
+    <t>Matched string within the third non-passive group.</t>
+  </si>
+  <si>
+    <t>$0 or $&amp;</t>
+  </si>
+  <si>
+    <t>Entire matched string.</t>
+  </si>
+  <si>
+    <t>Matched string within the group named "foo".</t>
+  </si>
+  <si>
+    <t>$foo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\\u</t>
+  </si>
+  <si>
+    <t>Make the next character in the replacement uppercase.</t>
+  </si>
+  <si>
+    <t>\\\l</t>
+  </si>
+  <si>
+    <t>Make the next character in the replacement lowercase.</t>
+  </si>
+  <si>
+    <t>\\\U</t>
+  </si>
+  <si>
+    <t>Make the remaining characters in the replacement uppercase.</t>
+  </si>
+  <si>
+    <t>\\\L</t>
+  </si>
+  <si>
+    <t>Make the remaining characters in the replacement lowercase.</t>
+  </si>
+  <si>
+    <t>(?i)</t>
+  </si>
+  <si>
+    <t>Case insensitive mode. Make the remainder of the pattern or subpattern case insensitive.</t>
+  </si>
+  <si>
+    <t>(?m)</t>
+  </si>
+  <si>
+    <t>Multi-line mode. Make $ and ^ in the remainder of the pattern or subpattern match before/after newline.</t>
+  </si>
+  <si>
+    <t>(?s)</t>
+  </si>
+  <si>
+    <t>Single-line mode. Make the . (dot) in the remainder of the pattern or subpattern match newline.</t>
+  </si>
+  <si>
+    <t>(?x)</t>
+  </si>
+  <si>
+    <t>Free spacing mode. Ignore white space in the remainder of the pattern or subpattern.</t>
+  </si>
+  <si>
+    <t>http://shancarter.github.io/mr-data-converter/ にcsvを各階層ごとに貼り付ける
+backslashは¥で表示されるが、貼り付けるとbackslashに変換されるので気にしない</t>
     <rPh sb="52" eb="55">
       <t>カクカイソウゴトニ</t>
     </rPh>
@@ -53,587 +622,6 @@
       <t>ハリツケル</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Anchors</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Character Classes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>desc-en</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>desc-ja</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Character classes can be used in ranges.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POSIX Character Classes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0000FF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POSIX Character Classes must be used in bracket expressions, e.g. [a-z[:upper:]].</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Groups</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0f000f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bracket Expressions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>000f0f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Quantifiers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0f0f0f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Special Characters</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0f00ff</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Assertions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00ff0f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Back References</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Case Modifiers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Modifiers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Back references are used in replacements.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Case modifiers are used in replacements.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Modifiers can be grouped together, e.g. (?ixm).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sign</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f00000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ff0000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>^</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\\A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\A</t>
-  </si>
-  <si>
-    <t>\\z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\\b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\\B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches at the start of string or start of line if multi-line mode is enabled. Many regex implementations have multi-line mode enabled by default.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches at the end of string or end of line if multi-line mode is  enabled. Many regex implementations have multi-line mode enabled by default.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches at the start of the search string.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches at the end of the search string, or before a newline at the end of the string.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches at the end of the search string.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches at word boundaries.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches anywhere but word boundaries.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\\Z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>backslashは¥で表示されるが、貼り付けるとbackslashに変換されるので気にしない</t>
-    <rPh sb="19" eb="20">
-      <t>ハリツケルト</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヘンカンサレルノデ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>キニシナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\x{ffff}</t>
-  </si>
-  <si>
-    <t>\s</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Matches any character except newline (matches newline in single-line)</t>
-  </si>
-  <si>
-    <t>Matches white space characters.</t>
-  </si>
-  <si>
-    <t>\S</t>
-  </si>
-  <si>
-    <t>Matches anything but white space characters.</t>
-  </si>
-  <si>
-    <t>\d</t>
-  </si>
-  <si>
-    <t>Matches digits. Equivalent to [0-9].</t>
-  </si>
-  <si>
-    <t>\D</t>
-  </si>
-  <si>
-    <t>Matches anything but digits. Equivalent to [^0-9].</t>
-  </si>
-  <si>
-    <t>\w</t>
-  </si>
-  <si>
-    <t>\W</t>
-  </si>
-  <si>
-    <t>\xff</t>
-  </si>
-  <si>
-    <t>Matches ASCII hexadecimal character ff.</t>
-  </si>
-  <si>
-    <t>Matches UTF-8 hexadecimal character ffff.</t>
-  </si>
-  <si>
-    <t>Matches ASCII control character ^A (case insensitive).</t>
-  </si>
-  <si>
-    <t>Matches ASCII octal character 132.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches letters, digits and underscores. Equivalent to [A-Za-z0-9_].</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches anything but letters, digits and underscores.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[:upper:]</t>
-  </si>
-  <si>
-    <t>Matches uppercase letters. Equivalent to A-Z.</t>
-  </si>
-  <si>
-    <t>[:lower:]</t>
-  </si>
-  <si>
-    <t>Matches lowercase letters. Equivalent to a-z.</t>
-  </si>
-  <si>
-    <t>[:alpha:]</t>
-  </si>
-  <si>
-    <t>Matches letters. Equivalent to A-Za-z.</t>
-  </si>
-  <si>
-    <t>[:alnum:]</t>
-  </si>
-  <si>
-    <t>Matches letters and digits. Equivalent to A-Za-z0-9.</t>
-  </si>
-  <si>
-    <t>[:ascii:]</t>
-  </si>
-  <si>
-    <t>[:word:]</t>
-  </si>
-  <si>
-    <t>[:digit:]</t>
-  </si>
-  <si>
-    <t>Matches digits. Equivalent to 0-9.</t>
-  </si>
-  <si>
-    <t>[:xdigit:]</t>
-  </si>
-  <si>
-    <t>Matches characters that can be used in hexadecimal codes.</t>
-  </si>
-  <si>
-    <t>[:punct:]</t>
-  </si>
-  <si>
-    <t>Matches punctuation.</t>
-  </si>
-  <si>
-    <t>[:blank:]</t>
-  </si>
-  <si>
-    <t>[:space:]</t>
-  </si>
-  <si>
-    <t>[:cntrl:]</t>
-  </si>
-  <si>
-    <t>[:graph:]</t>
-  </si>
-  <si>
-    <t>[:print:]</t>
-  </si>
-  <si>
-    <t>Matches ASCII characters. Equivalent to \\x00-\\x7f.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches letters, digits and underscores. Equivalent to \\w.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches space and tab. Equivalent to [ \\t].</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches space, tab and newline. Equivalent to \\s.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches control characters. Equivalent to [\\x00-\\x1F\\x7F].</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches printed characters. Equivalent to [\\x21-\\x7E].</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Matches printed characters and spaces. Equivalent to [\\x21-\\x7E].</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(foo|bar)</t>
-  </si>
-  <si>
-    <t>Matches pattern foo or bar.</t>
-  </si>
-  <si>
-    <t>(foo)</t>
-  </si>
-  <si>
-    <t>Define a group (or subpattern) consisting of pattern foo. Matches within the group can be referenced in a replacement using a backreference.</t>
-  </si>
-  <si>
-    <t>(?&lt;foo&gt;bar)</t>
-  </si>
-  <si>
-    <t>Define a named group named "foo" consisting of pattern bar. Matches within the group can be referenced in a replacement using the backreference $foo.</t>
-  </si>
-  <si>
-    <t>(?:foo)</t>
-  </si>
-  <si>
-    <t>Define a passive group consisting of pattern foo. Passive groups cannot be referenced in a replacement using a backreference.</t>
-  </si>
-  <si>
-    <t>(?&gt;foo+)bar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Define an atomic group consisting of pattern foo+. Once foo+ has been matched, the regex engine will not try to find other variable length matches of foo+ in order to find a match followed by a maßtch of bar. Atomic groups may be used for perforamce reasons.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[adf]</t>
-  </si>
-  <si>
-    <t>Matches characters a or d or f.</t>
-  </si>
-  <si>
-    <t>[^adf]</t>
-  </si>
-  <si>
-    <t>Matches anything but characters a, d and f.</t>
-  </si>
-  <si>
-    <t>[a-f]</t>
-  </si>
-  <si>
-    <t>Match any lowercase letter between a and f inclusive.</t>
-  </si>
-  <si>
-    <t>[A-F]</t>
-  </si>
-  <si>
-    <t>Match any uppercase letter between A and F inclusive.</t>
-  </si>
-  <si>
-    <t>[0-9]</t>
-  </si>
-  <si>
-    <t>Match any digit between 0 and 9 inclusive.</t>
-  </si>
-  <si>
-    <t>*?</t>
-  </si>
-  <si>
-    <t>Zero or more, lazy. Matches will be as small as possible.</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>One or more. Matches will be as large as possible.</t>
-  </si>
-  <si>
-    <t>+?</t>
-  </si>
-  <si>
-    <t>One or more, lazy. Matches will be as small as possible.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Zero or one. Matches will be as large as possible.</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>Zero or one, lazy. Matches will be as small as possible.</t>
-  </si>
-  <si>
-    <t>{2}</t>
-  </si>
-  <si>
-    <t>Two exactly.</t>
-  </si>
-  <si>
-    <t>{2,}</t>
-  </si>
-  <si>
-    <t>Two or more. Matches will be as large as possible.</t>
-  </si>
-  <si>
-    <t>{2,}?</t>
-  </si>
-  <si>
-    <t>Two or more, lazy. Matches will be as small as possible.</t>
-  </si>
-  <si>
-    <t>{2,4}</t>
-  </si>
-  <si>
-    <t>Two, three or four. Matches will be as large as possible.</t>
-  </si>
-  <si>
-    <t>{2,4}?</t>
-  </si>
-  <si>
-    <t>Two, three or four, lazy. Matches will be as small as possible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\\ </t>
-  </si>
-  <si>
-    <t>Escape character.</t>
-  </si>
-  <si>
-    <t>\\n</t>
-  </si>
-  <si>
-    <t>Matches newline.</t>
-  </si>
-  <si>
-    <t>\\t</t>
-  </si>
-  <si>
-    <t>Matches tab.</t>
-  </si>
-  <si>
-    <t>\\r</t>
-  </si>
-  <si>
-    <t>Matches carriage return.</t>
-  </si>
-  <si>
-    <t>\\v</t>
-  </si>
-  <si>
-    <t>Matches form feed/page break.</t>
-  </si>
-  <si>
-    <t>foo(?=bar)</t>
-  </si>
-  <si>
-    <t>Lookahead assertion. The pattern foo will only match if followed by a match of pattern bar.</t>
-  </si>
-  <si>
-    <t>foo(?!bar)</t>
-  </si>
-  <si>
-    <t>Negative lookahead assertion. The pattern foo will only match if not followed by a match of pattern bar.</t>
-  </si>
-  <si>
-    <t>(?&lt;=foo)bar</t>
-  </si>
-  <si>
-    <t>Lookbehind assertion. The pattern bar will only match if preceded by a match of pattern foo.</t>
-  </si>
-  <si>
-    <t>(?&lt;!foo)bar</t>
-  </si>
-  <si>
-    <t>Negative lookbehind assertion. The pattern bar will only match if not preceded by a match of pattern foo.</t>
-  </si>
-  <si>
-    <t>Matched string within the third non-passive group.</t>
-  </si>
-  <si>
-    <t>$0 or $&amp;</t>
-  </si>
-  <si>
-    <t>Entire matched string.</t>
-  </si>
-  <si>
-    <t>Matched string within the group named "foo".</t>
-  </si>
-  <si>
-    <t>$foo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\\\u</t>
-  </si>
-  <si>
-    <t>Make the next character in the replacement uppercase.</t>
-  </si>
-  <si>
-    <t>\\\l</t>
-  </si>
-  <si>
-    <t>Make the next character in the replacement lowercase.</t>
-  </si>
-  <si>
-    <t>\\\U</t>
-  </si>
-  <si>
-    <t>Make the remaining characters in the replacement uppercase.</t>
-  </si>
-  <si>
-    <t>\\\L</t>
-  </si>
-  <si>
-    <t>Make the remaining characters in the replacement lowercase.</t>
-  </si>
-  <si>
-    <t>(?i)</t>
-  </si>
-  <si>
-    <t>Case insensitive mode. Make the remainder of the pattern or subpattern case insensitive.</t>
-  </si>
-  <si>
-    <t>(?m)</t>
-  </si>
-  <si>
-    <t>Multi-line mode. Make $ and ^ in the remainder of the pattern or subpattern match before/after newline.</t>
-  </si>
-  <si>
-    <t>(?s)</t>
-  </si>
-  <si>
-    <t>Single-line mode. Make the . (dot) in the remainder of the pattern or subpattern match newline.</t>
-  </si>
-  <si>
-    <t>(?x)</t>
-  </si>
-  <si>
-    <t>Free spacing mode. Ignore white space in the remainder of the pattern or subpattern.</t>
   </si>
 </sst>
 </file>
@@ -700,12 +688,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -733,7 +801,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="21" applyNumberFormat="1"/>
@@ -741,6 +809,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1039,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1050,17 +1145,49 @@
     <col min="1" max="1" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    <row r="1" spans="1:4" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1078,45 +1205,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1138,13 +1265,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1152,23 +1279,23 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1190,45 +1317,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1250,45 +1377,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
@@ -1313,83 +1440,83 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1397,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1408,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1447,69 +1574,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1537,99 +1664,99 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1637,7 +1764,7 @@
         <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1671,125 +1798,125 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1811,53 +1938,53 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1879,53 +2006,53 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1947,93 +2074,93 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2055,53 +2182,53 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/cheatsheet.xlsx
+++ b/cheatsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41460" yWindow="1060" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="41460" yWindow="1060" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="184">
   <si>
     <t>color</t>
     <phoneticPr fontId="1"/>
@@ -622,6 +622,40 @@
       <t>ハリツケル</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items-Anchors'!A1</t>
+  </si>
+  <si>
+    <t>items-CharClass'!A1</t>
+  </si>
+  <si>
+    <t>items-POSIX-CHAR'!A1</t>
+  </si>
+  <si>
+    <t>items-Groups'!A1</t>
+  </si>
+  <si>
+    <t>items-bracketEx'!A1</t>
+  </si>
+  <si>
+    <t>items-Quantifiers'!A1</t>
+  </si>
+  <si>
+    <t>items-spchar'!A1</t>
+  </si>
+  <si>
+    <t>items-assertion'!A1</t>
+  </si>
+  <si>
+    <t>items-Case Modifiers'!A1</t>
+  </si>
+  <si>
+    <t>items-Modifiers'!A1</t>
   </si>
 </sst>
 </file>
@@ -801,7 +835,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="21" applyNumberFormat="1"/>
@@ -836,6 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1136,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1427,15 +1462,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1448,16 +1483,22 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1467,8 +1508,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1478,48 +1522,66 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1529,8 +1591,11 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1540,8 +1605,11 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1551,9 +1619,25 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
+      <c r="E12" s="16" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E2" location="'items-Anchors'!A1" display="'items-Anchors'!A1"/>
+    <hyperlink ref="E3" location="'items-CharClass'!A1" display="'items-CharClass'!A1"/>
+    <hyperlink ref="E4" location="'items-POSIX-CHAR'!A1" display="'items-POSIX-CHAR'!A1"/>
+    <hyperlink ref="E5" location="'items-Groups'!A1" display="'items-Groups'!A1"/>
+    <hyperlink ref="E6" location="'items-bracketEx'!A1" display="'items-bracketEx'!A1"/>
+    <hyperlink ref="E7" location="'items-Quantifiers'!A1" display="'items-Quantifiers'!A1"/>
+    <hyperlink ref="E8" location="'items-spchar'!A1" display="'items-spchar'!A1"/>
+    <hyperlink ref="E9" location="'items-assertion'!A1" display="'items-assertion'!A1"/>
+    <hyperlink ref="E10" location="'items-Back References'!A1" display="items-assertion'!A1"/>
+    <hyperlink ref="E11" location="'items-Case Modifiers'!A1" display="'items-Case Modifiers'!A1"/>
+    <hyperlink ref="E12" location="'items-Modifiers'!A1" display="'items-Modifiers'!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
